--- a/results/FrequencyTables/27404981_gRNA-RRE.xlsx
+++ b/results/FrequencyTables/27404981_gRNA-RRE.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>0.0468220186133757</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00111824543683717</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0340884496068105</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0.0350263328764158</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00342688117740423</v>
       </c>
       <c r="G2">
-        <v>0.02</v>
+        <v>0.00876560132746555</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0455234110093067</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000108217300339081</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00483370608181228</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0.0332227112040978</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.31</v>
+        <v>0.0518360868624197</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0054469374504004</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000180362167231801</v>
       </c>
       <c r="P2">
-        <v>0.98</v>
+        <v>0.95451266142414</v>
       </c>
       <c r="Q2">
-        <v>0.04</v>
+        <v>0.0481927710843374</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.21448668927206e-05</v>
       </c>
       <c r="S2">
-        <v>0.99</v>
+        <v>0.989178269966092</v>
       </c>
       <c r="T2">
-        <v>0.01</v>
+        <v>0.000649303802034485</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.95</v>
+        <v>0.938460428540509</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00137075247096169</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00115431787028353</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.99</v>
+        <v>0.889041194718996</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00101002813649809</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>0.0114710338359426</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3.60724334463603e-05</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00328259144361879</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0322487555010461</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00721448668927206</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0371546064497511</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.959418512372845</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00854916672678739</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.000685376235480846</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.21448668927206e-05</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00198398383954982</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0353149123439867</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00176754923887165</v>
       </c>
       <c r="R3">
-        <v>0.99</v>
+        <v>0.989935791068466</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0026332876415843</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>7.21448668927206e-05</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.998701392395931</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0125892792727797</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00310222927638699</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0362167231801457</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0400404011254599</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0327898420027415</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00306615684294062</v>
       </c>
       <c r="E4">
-        <v>0.99</v>
+        <v>0.964540797922228</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.992857658177621</v>
       </c>
       <c r="G4">
-        <v>0.98</v>
+        <v>0.944881321693961</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00158718707163985</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000144289733785441</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.000108217300339081</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00115431787028353</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000144289733785441</v>
       </c>
       <c r="M4">
-        <v>0.69</v>
+        <v>0.947262102301421</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.994264483082029</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.997799581559772</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00396796767909963</v>
       </c>
       <c r="Q4">
-        <v>0.96</v>
+        <v>0.945314190895318</v>
       </c>
       <c r="R4">
-        <v>0.01</v>
+        <v>3.60724334463603e-05</v>
       </c>
       <c r="S4">
-        <v>0.01</v>
+        <v>0.0028136498088161</v>
       </c>
       <c r="T4">
-        <v>0.99</v>
+        <v>0.999098189163841</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00104610056994445</v>
       </c>
       <c r="V4">
-        <v>0.05</v>
+        <v>0.03885001082173</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.964360435754996</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.962520741649232</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0235913714739196</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.965009739557031</v>
       </c>
       <c r="D5">
-        <v>0.99</v>
+        <v>0.951157925113628</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000396796767909963</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.000432869201356323</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0135632349758315</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.945566697929442</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.962592886516124</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0354952745112185</v>
       </c>
       <c r="K5">
-        <v>0.99</v>
+        <v>0.956893442031599</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.999170334030734</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000613231368588125</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000180362167231801</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.02</v>
+        <v>0.00591587908520309</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00418440227977779</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00995599163119544</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00515835798282952</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000180362167231801</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000216434600678162</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0100281364980882</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0311305100642089</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>7.21448668927206e-05</v>
       </c>
     </row>
   </sheetData>
